--- a/biology/Zoologie/Acinonyx_jubatus_raineyi/Acinonyx_jubatus_raineyi.xlsx
+++ b/biology/Zoologie/Acinonyx_jubatus_raineyi/Acinonyx_jubatus_raineyi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acinonyx jubatus raineyi est une sous-espèce du Guépard présente dans l'Afrique de l'Est. Dans l'année 2004, la population de guépards était estimée entre 970 à 2 900 individus.
 </t>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se trouve en Tanzanie, au Kenya, en Ouganda et au Congo.
 </t>
@@ -542,7 +556,9 @@
           <t>Population</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Kenya : 1 502
  Tanzanie : 1 470
@@ -575,10 +591,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Acinonyx jubatus raineyi Heller, 1913[1].
-Acinonyx jubatus raineyi a pour synonyme[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Acinonyx jubatus raineyi Heller, 1913.
+Acinonyx jubatus raineyi a pour synonyme :
 Acinonyx jubatus velox Heller, 1913</t>
         </is>
       </c>
